--- a/Documentos/Cantantes Internacionales.xlsx
+++ b/Documentos/Cantantes Internacionales.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE5F891-5E39-40AD-AD6E-F0917BDE7951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -166,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -327,11 +328,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -341,7 +339,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -353,10 +351,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -366,11 +363,10 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,25 +404,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4878916"/>
-          <a:ext cx="4762501" cy="1598083"/>
+          <a:off x="31750" y="4910666"/>
+          <a:ext cx="5228167" cy="2169584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -479,7 +481,37 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" marR="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>El</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> contenido de la fila 1 debe estar en tamaño 18, las celdas combinadas y centradas.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -506,7 +538,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>El</a:t>
+            <a:t>La</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-AR" sz="1100" baseline="0">
@@ -518,7 +550,84 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> contenido de la fila 1 esta tamaño 18 y las celdas combinadas y centradas.</a:t>
+            <a:t> descripciòn de los datos deben ser alineados al medio, centrados y ajustar el texto. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Los datos deben ser alineados al medio y ajustar texto.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>La</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> descripciòn de los datos tienen un color de fondo y texto en cursiva.</a:t>
           </a:r>
           <a:endParaRPr lang="es-AR" sz="1100">
             <a:effectLst/>
@@ -531,21 +640,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="es-AR" sz="1100"/>
-            <a:t>La</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
-            <a:t> descripciòn de los datos tienen un color de fondo y texto en cursiva.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100"/>
-            <a:t>El tipo de letra del Times New Roman.</a:t>
+            <a:t>El tipo de letra es Times New Roman.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -626,25 +721,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>116417</xdr:colOff>
+      <xdr:colOff>613834</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>21168</xdr:rowOff>
+      <xdr:rowOff>42334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>677333</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>52917</xdr:rowOff>
+      <xdr:colOff>1174750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4783667" y="4889501"/>
-          <a:ext cx="3217333" cy="1799166"/>
+          <a:off x="5281084" y="4910667"/>
+          <a:ext cx="3217333" cy="2000249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -710,7 +811,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>La fila 2 esta alineada al medio y centrada.</a:t>
+            <a:t>La fila 2 debe ser alineada al medio y centrada.</a:t>
           </a:r>
           <a:endParaRPr lang="es-AR" sz="1100">
             <a:effectLst/>
@@ -817,7 +918,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>La columna C esta alineada hacia la derecha.</a:t>
+            <a:t>La columna C debe ser alineada hacia la derecha.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -848,7 +949,7 @@
             <a:rPr lang="es-AR" sz="1100" baseline="0">
               <a:effectLst/>
             </a:rPr>
-            <a:t> G deben tener un alcho de 5,18 cm.</a:t>
+            <a:t> G deben tener un ancho de 5,18 cm.</a:t>
           </a:r>
           <a:endParaRPr lang="es-AR" sz="1100">
             <a:effectLst/>
@@ -865,9 +966,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -905,9 +1006,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -942,7 +1043,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,7 +1078,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1150,11 +1251,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,251 +1270,242 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>34403</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="10"/>
+      <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>32855</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="14"/>
+      <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>36812</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>36621</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>34362</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="10"/>
-      <c r="M7" s="14"/>
+      <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>32193</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="3"/>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="G12" s="4"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
   </sheetData>

--- a/Documentos/Cantantes Internacionales.xlsx
+++ b/Documentos/Cantantes Internacionales.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE5F891-5E39-40AD-AD6E-F0917BDE7951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6D5337-F195-401C-890A-3C2CFC07C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,28 +209,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,44 +219,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -306,17 +259,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -328,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -342,36 +284,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -409,8 +340,8 @@
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>592667</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>867833</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -427,8 +358,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31750" y="4910666"/>
-          <a:ext cx="5228167" cy="2169584"/>
+          <a:off x="31750" y="2762250"/>
+          <a:ext cx="5249333" cy="2169583"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -720,16 +651,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>613834</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>899583</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>42334</xdr:rowOff>
+      <xdr:rowOff>52917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1174750</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1322915</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -744,8 +675,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5281084" y="4910667"/>
-          <a:ext cx="3217333" cy="2000249"/>
+          <a:off x="5312833" y="2772834"/>
+          <a:ext cx="4286249" cy="2000248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -950,6 +881,31 @@
               <a:effectLst/>
             </a:rPr>
             <a:t> G deben tener un ancho de 5,18 cm.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Las demas columnas deben tener un ancho a eleccion.</a:t>
           </a:r>
           <a:endParaRPr lang="es-AR" sz="1100">
             <a:effectLst/>
@@ -1254,228 +1210,222 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3">
         <v>34403</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4">
         <v>32855</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5">
         <v>36812</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6">
         <v>36621</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7">
         <v>34362</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" t="s">
         <v>41</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="11">
         <v>32193</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1483,14 +1433,14 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G11" s="2"/>
@@ -1509,10 +1459,9 @@
       <c r="A15" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentos/Cantantes Internacionales.xlsx
+++ b/Documentos/Cantantes Internacionales.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6D5337-F195-401C-890A-3C2CFC07C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B034659-3E84-479D-8FAE-0B81E5DF993A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -290,19 +290,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -341,9 +340,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>867833</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>1174750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -359,7 +358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="31750" y="2762250"/>
-          <a:ext cx="5249333" cy="2169583"/>
+          <a:ext cx="5778500" cy="5122333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -413,32 +412,347 @@
         </a:p>
         <a:p>
           <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>El</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> contenido </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>de la fila 1 debe estar en tamaño 18, las celdas combinadas y centradas.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>La</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> descripciòn de los datos </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>deben ser alineados al medio, centrados y ajustar el texto.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>La</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> descripciòn de los datos </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tienen un color de fondo y texto en cursiva. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Los datos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> deben ser alineados al medio y ajustar texto.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="1"/>
+            <a:t>El tipo de letra</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200"/>
+            <a:t> es Times New Roman.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="1"/>
+            <a:t>Tamaño de letra </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200"/>
+            <a:t>12.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="0"/>
+            <a:t>Insertar los </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="1" i="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>enlaces</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" i="1" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" i="0" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>en el genero</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> musical.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Insertar todos los </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="1" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bordes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> a la tabla.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
             <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:buChar char="•"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>El</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> contenido de la fila 1 debe estar en tamaño 18, las celdas combinadas y centradas.</a:t>
+          <a:endParaRPr lang="es-AR" sz="1200" b="0" i="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Filas</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -460,32 +774,22 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-AR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>La</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> descripciòn de los datos deben ser alineados al medio, centrados y ajustar el texto. </a:t>
-          </a:r>
-          <a:endParaRPr lang="es-AR" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>La fila 2 debe ser alineada al medio y centrada.</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -506,16 +810,89 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Los datos deben ser alineados al medio y ajustar texto.</a:t>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>La fila 2 debe tener un </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>alto a eleccion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="0" i="0" u="sng" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>distintas a las filas restantes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -537,292 +914,128 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-AR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>La</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> descripciòn de los datos tienen un color de fondo y texto en cursiva.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-AR" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100"/>
-            <a:t>El tipo de letra es Times New Roman.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100"/>
-            <a:t>Tamaño de letra 12.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100"/>
-            <a:t>Insertar los </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" i="1" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>enlaces</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" i="1" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" i="0" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>en el genero</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" i="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> musical.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" i="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Insertar todos los bordes a la tabla.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-AR" sz="1100" i="0" u="none">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>899583</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>52917</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1322915</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5312833" y="2772834"/>
-          <a:ext cx="4286249" cy="2000248"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0">
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Las filas restantes deben tener un </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>alto a eleccion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (todas por igual).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Filas</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
+          <a:endParaRPr kumimoji="0" lang="es-AR" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>La fila 2 debe ser alineada al medio y centrada.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-AR" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>La fila 2 debe tener un ancho</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> a eleccion distintas a las filas restantes.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-AR" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Las filas restantes deben tener un alto a eleccion</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> (todas por igual).</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-AR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-AR" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1200" b="1"/>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Columnas</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" marR="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -840,11 +1053,16 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -853,7 +1071,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" marR="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -871,20 +1089,59 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-AR" sz="1100">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>La columna A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> G deben tener un ancho de 5,18 cm.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" marR="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>La columna A G deben tener un </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ancho de 5,18 cm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -902,16 +1159,156 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Las demas columnas deben tener un ancho a eleccion.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-AR" sz="1100">
-            <a:effectLst/>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Las demas columnas deben tener un </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ancho a eleccion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR" sz="1200" b="0" i="0" u="none">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
           </a:endParaRPr>
         </a:p>
-        <a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>105832</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B1C669-75AA-4B51-8624-B0BC4351941D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="105832" y="7006166"/>
+          <a:ext cx="3767667" cy="582083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200"/>
+            <a:t>El</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" baseline="0"/>
+            <a:t> documento debe tener una disposicion </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="1" baseline="0"/>
+            <a:t>horizontal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" baseline="0"/>
+            <a:t>, margenes </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="1" baseline="0"/>
+            <a:t>estrechos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" baseline="0"/>
+            <a:t>, y listo para ser impreso en hoja </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" b="1" baseline="0"/>
+            <a:t>A4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="0" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
           <a:endParaRPr lang="es-AR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1211,7 +1608,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,13 +1795,13 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8">
         <v>32193</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" t="s">
         <v>44</v>
       </c>
       <c r="E8" t="s">
@@ -1423,9 +1820,9 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1433,14 +1830,14 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G11" s="2"/>
@@ -1464,8 +1861,8 @@
     <mergeCell ref="C10:D10"/>
   </mergeCells>
   <printOptions headings="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documentos/Cantantes Internacionales.xlsx
+++ b/Documentos/Cantantes Internacionales.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B034659-3E84-479D-8FAE-0B81E5DF993A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD15F55-8010-4CE5-9F0F-7C8F8519C60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1860,8 +1860,7 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
   </mergeCells>
-  <printOptions headings="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
